--- a/academycity/data/avic/datasets/excel/conference/output/GDP/2018_ExportICT_o.xlsx
+++ b/academycity/data/avic/datasets/excel/conference/output/GDP/2018_ExportICT_o.xlsx
@@ -2090,7 +2090,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -4019,7 +4019,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -5948,7 +5948,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -9071,7 +9071,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C133" t="n">
